--- a/output/2021-10-25_0.17/Book2.xlsx
+++ b/output/2021-10-25_0.17/Book2.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dxx0511a/Desktop/Columbia/MECS_4510_EA/hw2/output/2021-10-25_0.17/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC24F9B-91BC-3E4A-BC5A-2B254641FBE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70C2E7A-09C3-824E-9453-F42079C734A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33520" yWindow="2260" windowWidth="27540" windowHeight="26540" xr2:uid="{54D34A7E-17FE-B049-AA4C-511C80083825}"/>
+    <workbookView xWindow="3020" yWindow="1340" windowWidth="27540" windowHeight="26540" xr2:uid="{54D34A7E-17FE-B049-AA4C-511C80083825}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -446,7 +446,7 @@
   <dimension ref="B2:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
